--- a/exportExcel/export.xlsx
+++ b/exportExcel/export.xlsx
@@ -153,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
